--- a/VT_REG1_ELC_K03.xlsx
+++ b/VT_REG1_ELC_K03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_models\KModel_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288CAD03-CCBD-4C66-84EA-F08B6630B642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EE55D2-72FD-40D7-AC8A-F55ECD8B1B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3669,8 +3669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417451BC-0FA5-484A-80CF-4C86B899A149}">
   <dimension ref="A1:Z57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/VT_REG1_ELC_K03.xlsx
+++ b/VT_REG1_ELC_K03.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_models\KModel_03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kristoffer\Stochastic_invest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EE55D2-72FD-40D7-AC8A-F55ECD8B1B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F23CC99-D612-4C04-BE46-E59AB1BEAC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="38700" windowHeight="14970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sector_Fuels_ELC" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{7C52191B-B5E0-447E-9D6D-EDA61D3B6BCE}">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{7C52191B-B5E0-447E-9D6D-EDA61D3B6BCE}">
       <text>
         <r>
           <rPr>
@@ -163,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M3" authorId="1" shapeId="0" xr:uid="{5C104438-6FD7-46D2-95FF-1AC93F93A73E}">
+    <comment ref="P3" authorId="1" shapeId="0" xr:uid="{5C104438-6FD7-46D2-95FF-1AC93F93A73E}">
       <text>
         <r>
           <rPr>
@@ -189,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="2" shapeId="0" xr:uid="{4D533049-8075-4D17-9ADB-01F66942A43F}">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{4D533049-8075-4D17-9ADB-01F66942A43F}">
       <text>
         <r>
           <rPr>
@@ -262,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{B1FA85D9-6341-4645-A2D0-E6FD4B349969}">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{B1FA85D9-6341-4645-A2D0-E6FD4B349969}">
       <text>
         <r>
           <rPr>
@@ -315,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{F81B7CE9-6066-426D-B451-91DF836415E2}">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{F81B7CE9-6066-426D-B451-91DF836415E2}">
       <text>
         <r>
           <rPr>
@@ -348,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N15" authorId="2" shapeId="0" xr:uid="{D3849002-94C4-4000-8564-2E73D155FCFB}">
+    <comment ref="Q15" authorId="2" shapeId="0" xr:uid="{D3849002-94C4-4000-8564-2E73D155FCFB}">
       <text>
         <r>
           <rPr>
@@ -441,7 +441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O15" authorId="1" shapeId="0" xr:uid="{5CC9597E-6D3C-4337-BFB9-C319FE68228B}">
+    <comment ref="R15" authorId="1" shapeId="0" xr:uid="{5CC9597E-6D3C-4337-BFB9-C319FE68228B}">
       <text>
         <r>
           <rPr>
@@ -466,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P15" authorId="2" shapeId="0" xr:uid="{0E228638-954F-4BDA-B059-C3185637FB00}">
+    <comment ref="S15" authorId="2" shapeId="0" xr:uid="{0E228638-954F-4BDA-B059-C3185637FB00}">
       <text>
         <r>
           <rPr>
@@ -529,7 +529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="2" shapeId="0" xr:uid="{84DCCB27-D345-4F38-B36E-CC1E29C0180D}">
+    <comment ref="K16" authorId="2" shapeId="0" xr:uid="{84DCCB27-D345-4F38-B36E-CC1E29C0180D}">
       <text>
         <r>
           <rPr>
@@ -777,7 +777,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="178">
   <si>
     <t>Sector Name</t>
   </si>
@@ -806,9 +806,6 @@
     <t>~FI_Comm</t>
   </si>
   <si>
-    <t>Csets</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
@@ -1032,9 +1029,6 @@
   </si>
   <si>
     <t>Year</t>
-  </si>
-  <si>
-    <t>START</t>
   </si>
   <si>
     <t>INVCOST</t>
@@ -1347,6 +1341,18 @@
       </rPr>
       <t>2022</t>
     </r>
+  </si>
+  <si>
+    <t>*START</t>
+  </si>
+  <si>
+    <t>PASTI</t>
+  </si>
+  <si>
+    <t>Cset</t>
+  </si>
+  <si>
+    <t>FX</t>
   </si>
 </sst>
 </file>
@@ -1734,7 +1740,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1874,12 +1880,21 @@
     <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="28">
-    <cellStyle name="20 % - Farve5" xfId="4" builtinId="46"/>
+    <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
+    <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Comma 2" xfId="8" xr:uid="{7F9F721F-8D2D-401E-9391-67D3C397F9EA}"/>
-    <cellStyle name="Farve2" xfId="3" builtinId="33"/>
-    <cellStyle name="God" xfId="1" builtinId="26"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Neutral 2" xfId="9" xr:uid="{4AFF8CDF-F329-4016-BCB8-747B3B109CEB}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3085,33 +3100,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="61.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.109375" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.140625" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3130,10 +3146,13 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="str">
         <f>[1]EB1!B6</f>
@@ -3143,373 +3162,413 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="L2" s="4"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H3" s="6" t="s">
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K3" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="M3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="S3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="K4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="O4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="S4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
-      <c r="H5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12" t="str">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="K5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12" t="str">
         <f>$B$2&amp;[2]Pri_RNW!$J$5</f>
         <v>ELCWINON</v>
       </c>
-      <c r="K5" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" s="12" t="str">
+      <c r="N5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="12" t="str">
         <f>$D$2</f>
         <v>PJ</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
       <c r="P5" s="12"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12" t="str">
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12" t="str">
         <f>$B$2&amp;[2]Pri_RNW!$J$6</f>
         <v>ELCWINOFF</v>
       </c>
-      <c r="K6" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="L6" s="12" t="str">
-        <f t="shared" ref="L6:L7" si="0">$D$2</f>
+      <c r="N6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="12" t="str">
+        <f t="shared" ref="O6:O7" si="0">$D$2</f>
         <v>PJ</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
       <c r="P6" s="12"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="str">
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12" t="str">
         <f>$B$2&amp;[2]Pri_RNW!$J$7</f>
         <v>ELCSOL</v>
       </c>
-      <c r="K7" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" s="12" t="str">
+      <c r="N7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="O7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
       <c r="P7" s="12"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="str">
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12" t="str">
         <f>$B$2&amp;[1]EB1!$E$2</f>
         <v>ELCGAS</v>
       </c>
-      <c r="K8" s="13" t="str">
+      <c r="N8" s="13" t="str">
         <f>$C$2&amp;" "&amp;[1]EB1!$E$3</f>
         <v>Sector Fuel Natural Gas</v>
       </c>
-      <c r="L8" s="12" t="str">
+      <c r="O8" s="12" t="str">
         <f>$D$2</f>
         <v>PJ</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
       <c r="P8" s="12"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="13"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
+      <c r="N9" s="13"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="13"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
+      <c r="N10" s="13"/>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
       <c r="P11" s="12"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="11"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
       <c r="P12" s="12"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M13" s="14"/>
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C14" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
-      <c r="H14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="K14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="4"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="C15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="D15" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>33</v>
       </c>
       <c r="F15" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="H15" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="L15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="6" t="s">
+      <c r="O15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="P15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="Q15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="R15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="S15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="P15" s="6" t="s">
+    </row>
+    <row r="16" spans="1:19" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="20" t="s">
+      <c r="B16" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="C16" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="D16" s="20" t="s">
         <v>44</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>45</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="20"/>
+      <c r="G16" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="80"/>
+      <c r="K16" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="L16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="9" t="s">
+      <c r="N16" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="O16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="P16" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="9" t="s">
+      <c r="Q16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="R16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="O16" s="9" t="s">
+      <c r="S16" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="P16" s="9" t="s">
+    </row>
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="21" t="s">
-        <v>56</v>
       </c>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="22" t="str">
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22" t="str">
         <f>E2&amp;"a"</f>
         <v>M€2022a</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="H17" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
+      <c r="H17" s="81"/>
+      <c r="K17" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="L17" s="23"/>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
       <c r="P17" s="23"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="str">
-        <f>J18</f>
+        <f>M18</f>
         <v>FTE-ELCWINON</v>
       </c>
       <c r="B18" t="str">
@@ -3517,41 +3576,49 @@
         <v>WINON</v>
       </c>
       <c r="C18" s="24" t="str">
-        <f>J5</f>
+        <f>M5</f>
         <v>ELCWINON</v>
       </c>
       <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="25">
+      <c r="E18" s="25">
         <v>1</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="12" t="str">
-        <f>"FT"&amp;$F$2&amp;"-"&amp;J5</f>
+      <c r="F18">
+        <v>2021</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="25">
+        <v>100</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="24"/>
+      <c r="M18" s="12" t="str">
+        <f>"FT"&amp;$F$2&amp;"-"&amp;M5</f>
         <v>FTE-ELCWINON</v>
       </c>
-      <c r="K18" s="13" t="str">
-        <f>$C$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;K5</f>
+      <c r="N18" s="13" t="str">
+        <f>$C$2&amp;" Technology"&amp;" "&amp;$J$1&amp;" "&amp;N5</f>
         <v>Sector Fuel Technology  Electricity Plants Wind Energy Onshore</v>
       </c>
-      <c r="L18" s="12" t="str">
+      <c r="O18" s="12" t="str">
         <f>$D$2</f>
         <v>PJ</v>
       </c>
-      <c r="M18" s="12" t="str">
+      <c r="P18" s="12" t="str">
         <f>$D$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="str">
-        <f>J19</f>
+        <f>M19</f>
         <v>FTE-ELCWINOFF</v>
       </c>
       <c r="B19" t="str">
@@ -3559,39 +3626,47 @@
         <v>WINOFF</v>
       </c>
       <c r="C19" s="24" t="str">
-        <f>J6</f>
+        <f>M6</f>
         <v>ELCWINOFF</v>
       </c>
       <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="25">
+      <c r="E19" s="25">
         <v>1</v>
       </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="12" t="str">
-        <f>"FTE"&amp;$G$2&amp;"-"&amp;J6</f>
+      <c r="F19">
+        <v>2021</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H19" s="25">
+        <v>100</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="12" t="str">
+        <f>"FTE"&amp;$J$2&amp;"-"&amp;M6</f>
         <v>FTE-ELCWINOFF</v>
       </c>
-      <c r="K19" s="13" t="str">
-        <f>$C$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;K6</f>
+      <c r="N19" s="13" t="str">
+        <f>$C$2&amp;" Technology"&amp;" "&amp;$J$1&amp;" "&amp;N6</f>
         <v>Sector Fuel Technology  Electricity Plants Wind Energy Offshore</v>
       </c>
-      <c r="L19" s="12" t="str">
+      <c r="O19" s="12" t="str">
         <f>$D$2</f>
         <v>PJ</v>
       </c>
-      <c r="M19" s="12" t="str">
-        <f t="shared" ref="M19:M20" si="1">$D$2&amp;"a"</f>
+      <c r="P19" s="12" t="str">
+        <f t="shared" ref="P19:P20" si="1">$D$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="str">
-        <f>J20</f>
+        <f>M20</f>
         <v>FTE-ELCSOL</v>
       </c>
       <c r="B20" t="str">
@@ -3599,63 +3674,80 @@
         <v>SOL</v>
       </c>
       <c r="C20" s="24" t="str">
-        <f>J7</f>
+        <f>M7</f>
         <v>ELCSOL</v>
       </c>
       <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="25">
+      <c r="E20" s="25">
         <v>1</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="12" t="str">
-        <f>"FTE"&amp;$G$2&amp;"-"&amp;J7</f>
+      <c r="F20">
+        <v>2021</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="25">
+        <v>100</v>
+      </c>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="12" t="str">
+        <f>"FTE"&amp;$J$2&amp;"-"&amp;M7</f>
         <v>FTE-ELCSOL</v>
       </c>
-      <c r="K20" s="13" t="str">
-        <f>$C$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;K7</f>
+      <c r="N20" s="13" t="str">
+        <f>$C$2&amp;" Technology"&amp;" "&amp;$J$1&amp;" "&amp;N7</f>
         <v>Sector Fuel Technology  Electricity Plants Solar Energy</v>
       </c>
-      <c r="L20" s="12" t="str">
+      <c r="O20" s="12" t="str">
         <f>$D$2</f>
         <v>PJ</v>
       </c>
-      <c r="M20" s="12" t="str">
+      <c r="P20" s="12" t="str">
         <f t="shared" si="1"/>
         <v>PJa</v>
       </c>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f>J21</f>
+        <f>M21</f>
         <v>FTE-ELCGAS</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C21" s="12" t="str">
-        <f>J8</f>
+        <f>M8</f>
         <v>ELCGAS</v>
       </c>
-      <c r="F21" s="25">
+      <c r="E21" s="25">
         <v>1</v>
       </c>
-      <c r="J21" t="s">
-        <v>165</v>
-      </c>
-      <c r="K21" s="13" t="str">
-        <f>$C$2&amp;" Technology"&amp;" "&amp;$F$1&amp;" "&amp;K8</f>
+      <c r="F21">
+        <v>2021</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="25">
+        <v>100</v>
+      </c>
+      <c r="M21" t="s">
+        <v>163</v>
+      </c>
+      <c r="N21" s="13" t="str">
+        <f>$C$2&amp;" Technology"&amp;" "&amp;$F$1&amp;" "&amp;N8</f>
         <v>Sector Fuel Technology Existing Sector Fuel Natural Gas</v>
       </c>
-      <c r="L21" t="s">
-        <v>60</v>
-      </c>
-      <c r="M21" t="s">
-        <v>166</v>
+      <c r="O21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3670,40 +3762,40 @@
   <dimension ref="A1:Z57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.33203125" customWidth="1"/>
+    <col min="13" max="14" width="14.28515625" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.21875" customWidth="1"/>
-    <col min="21" max="21" width="52.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.33203125" customWidth="1"/>
-    <col min="23" max="23" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.33203125" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" customWidth="1"/>
+    <col min="21" max="21" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.28515625" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" customWidth="1"/>
     <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -3722,7 +3814,7 @@
       <c r="P1" s="14"/>
       <c r="Q1" s="14"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -3750,7 +3842,7 @@
       <c r="Y2" s="27"/>
       <c r="Z2" s="27"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="28" t="s">
         <v>0</v>
@@ -3759,22 +3851,22 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="28" t="s">
+      <c r="G3" s="28" t="s">
         <v>66</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>67</v>
       </c>
       <c r="H3" s="28" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
@@ -3785,31 +3877,31 @@
       <c r="P3" s="14"/>
       <c r="Q3" s="14"/>
     </row>
-    <row r="4" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
@@ -3831,7 +3923,7 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -3850,49 +3942,49 @@
       <c r="P5" s="14"/>
       <c r="Q5" s="14"/>
       <c r="R5" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="S5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="T5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="U5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="V5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="W5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="X5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="X5" s="6" t="s">
+      <c r="Y5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Y5" s="6" t="s">
+      <c r="Z5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="Z5" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:26" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="8"/>
@@ -3906,49 +3998,49 @@
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="T6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="U6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="V6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="W6" s="9" t="s">
+      <c r="X6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="Y6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Y6" s="9" t="s">
+      <c r="Z6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Z6" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G7" s="14"/>
       <c r="H7" s="8"/>
@@ -3962,28 +4054,30 @@
       <c r="P7" s="14"/>
       <c r="Q7" s="14"/>
       <c r="R7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S7" s="12"/>
       <c r="T7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="V7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="W7" s="5"/>
+      <c r="W7" s="5" t="s">
+        <v>177</v>
+      </c>
       <c r="X7" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -4002,7 +4096,7 @@
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -4021,13 +4115,13 @@
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="16"/>
@@ -4042,140 +4136,140 @@
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="D11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>31</v>
-      </c>
       <c r="E11" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="K11" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="J11" s="35" t="s">
+      <c r="L11" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="K11" s="35" t="s">
+      <c r="M11" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="L11" s="35" t="s">
+      <c r="N11" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="O11" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="P11" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="M11" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="N11" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="O11" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="P11" s="34" t="s">
-        <v>90</v>
-      </c>
       <c r="Q11" s="36"/>
     </row>
-    <row r="12" spans="1:26" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="D12" s="20" t="s">
         <v>43</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>44</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="37"/>
       <c r="G12" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="N12" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="H12" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="K12" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="L12" s="37" t="s">
+      <c r="O12" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="M12" s="37" t="s">
+      <c r="P12" s="37" t="s">
         <v>95</v>
-      </c>
-      <c r="N12" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="O12" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="P12" s="37" t="s">
-        <v>97</v>
       </c>
       <c r="Q12" s="14"/>
       <c r="R12" s="39"/>
       <c r="S12" s="39"/>
     </row>
-    <row r="13" spans="1:26" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
       <c r="B13" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="40"/>
       <c r="G13" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H13" s="40"/>
       <c r="I13" s="41"/>
       <c r="J13" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="K13" s="40" t="s">
+      <c r="M13" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="L13" s="40" t="s">
+      <c r="N13" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="M13" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="N13" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="O13" s="40" t="s">
-        <v>102</v>
-      </c>
       <c r="P13" s="40" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="14"/>
       <c r="R13" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="5"/>
@@ -4186,7 +4280,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="14" t="str">
         <f>T16</f>
@@ -4201,13 +4295,13 @@
         <v>ELC</v>
       </c>
       <c r="E14" s="14">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F14" s="14">
         <v>2022</v>
       </c>
       <c r="G14" s="65">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H14" s="43">
         <v>0.4929</v>
@@ -4232,34 +4326,34 @@
       </c>
       <c r="Q14" s="14"/>
       <c r="R14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="U14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="S14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="T14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="U14" s="6" t="s">
+      <c r="V14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="V14" s="6" t="s">
+      <c r="W14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="W14" s="6" t="s">
+      <c r="X14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="X14" s="6" t="s">
+      <c r="Y14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Y14" s="6" t="s">
+      <c r="Z14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Z14" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:26" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -4278,34 +4372,34 @@
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T15" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="S15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="T15" s="9" t="s">
+      <c r="U15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="U15" s="9" t="s">
+      <c r="V15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="V15" s="9" t="s">
+      <c r="W15" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="W15" s="9" t="s">
+      <c r="X15" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="X15" s="9" t="s">
+      <c r="Y15" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Y15" s="9" t="s">
+      <c r="Z15" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="Z15" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -4324,21 +4418,24 @@
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="S16" s="12"/>
       <c r="T16" t="str">
-        <f>$B$4&amp;$C$7&amp;$H$4&amp;RIGHT(Sector_Fuels_ELC!$J$8,3)&amp;"00"</f>
+        <f>$B$4&amp;$C$7&amp;$H$4&amp;RIGHT(Sector_Fuels_ELC!$M$8,3)&amp;"00"</f>
         <v>ELCTEGAS00</v>
       </c>
       <c r="U16" t="str">
         <f>$D$4&amp;" "&amp;$H$3&amp;RIGHT(T16,2)&amp;" - "&amp; "Natural Gas"</f>
         <v>Power Plants Existing00 - Natural Gas</v>
       </c>
+      <c r="X16" t="s">
+        <v>149</v>
+      </c>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="Q17" s="14"/>
       <c r="R17" s="5"/>
@@ -4350,7 +4447,7 @@
       <c r="Y17" s="12"/>
       <c r="Z17" s="12"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -4369,7 +4466,7 @@
       <c r="P18" s="43"/>
       <c r="Q18" s="14"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -4388,7 +4485,7 @@
       <c r="P19" s="43"/>
       <c r="Q19" s="14"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -4407,7 +4504,7 @@
       <c r="P20" s="43"/>
       <c r="Q20" s="14"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -4417,7 +4514,7 @@
       <c r="G21" s="43"/>
       <c r="H21" s="14"/>
       <c r="I21" s="45" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J21" s="46"/>
       <c r="K21" s="46"/>
@@ -4428,28 +4525,28 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S21" s="12"/>
       <c r="T21" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="U21" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="V21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="W21" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="X21" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="U21" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="V21" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="W21" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="X21" s="5" t="s">
-        <v>107</v>
       </c>
       <c r="Y21" s="12"/>
       <c r="Z21" s="12"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -4459,7 +4556,7 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="48" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J22" s="49"/>
       <c r="K22" s="49"/>
@@ -4470,20 +4567,20 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
       <c r="T22" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="U22" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="V22" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X22" s="12"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -4493,7 +4590,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J23" s="49"/>
       <c r="K23" s="49"/>
@@ -4504,20 +4601,20 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
       <c r="T23" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V23" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X23" s="12"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -4527,7 +4624,7 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="48" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J24" s="49"/>
       <c r="K24" s="49"/>
@@ -4538,7 +4635,7 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -4548,7 +4645,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="51" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J25" s="52"/>
       <c r="K25" s="52"/>
@@ -4559,7 +4656,7 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -4578,7 +4675,7 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -4597,7 +4694,7 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -4616,7 +4713,7 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -4635,7 +4732,7 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -4645,7 +4742,7 @@
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="45" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J30" s="46"/>
       <c r="K30" s="46"/>
@@ -4656,7 +4753,7 @@
       <c r="P30" s="47"/>
       <c r="Q30" s="14"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -4666,11 +4763,11 @@
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="59" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J31" s="55"/>
       <c r="K31" s="58" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L31" s="55"/>
       <c r="M31" s="55"/>
@@ -4679,7 +4776,7 @@
       <c r="P31" s="50"/>
       <c r="Q31" s="14"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -4692,23 +4789,23 @@
         <v>2000000</v>
       </c>
       <c r="J32" s="49" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K32" s="48">
         <v>1200000</v>
       </c>
       <c r="L32" s="49" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M32" s="49"/>
       <c r="N32" s="49" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O32" s="49"/>
       <c r="P32" s="50"/>
       <c r="Q32" s="14"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -4722,24 +4819,24 @@
         <v>2</v>
       </c>
       <c r="J33" s="49" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K33" s="48">
         <f>K32/10^6</f>
         <v>1.2</v>
       </c>
       <c r="L33" s="49" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M33" s="49"/>
       <c r="N33" s="49" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O33" s="49"/>
       <c r="P33" s="50"/>
       <c r="Q33" s="14"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -4753,14 +4850,14 @@
         <v>2000</v>
       </c>
       <c r="J34" s="49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K34" s="48">
         <f>K33*1000</f>
         <v>1200</v>
       </c>
       <c r="L34" s="49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M34" s="49"/>
       <c r="N34" s="49"/>
@@ -4768,7 +4865,7 @@
       <c r="P34" s="50"/>
       <c r="Q34" s="14"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -4778,11 +4875,11 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J35" s="55"/>
       <c r="K35" s="58" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L35" s="55"/>
       <c r="M35" s="55"/>
@@ -4791,7 +4888,7 @@
       <c r="P35" s="50"/>
       <c r="Q35" s="14"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -4805,24 +4902,24 @@
         <v>81</v>
       </c>
       <c r="J36" s="55" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K36" s="55">
         <f>23424</f>
         <v>23424</v>
       </c>
       <c r="L36" s="55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M36" s="55"/>
       <c r="N36" s="49" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O36" s="49"/>
       <c r="P36" s="50"/>
       <c r="Q36" s="14"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -4836,24 +4933,24 @@
         <v>71.05263157894737</v>
       </c>
       <c r="J37" s="55" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K37" s="55">
         <f>K36/10^6</f>
         <v>2.3424E-2</v>
       </c>
       <c r="L37" s="55" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M37" s="55"/>
       <c r="N37" s="49" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O37" s="49"/>
       <c r="P37" s="50"/>
       <c r="Q37" s="14"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -4867,24 +4964,24 @@
         <v>71.05263157894737</v>
       </c>
       <c r="J38" s="55" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K38" s="55">
         <f>K37*1000</f>
         <v>23.423999999999999</v>
       </c>
       <c r="L38" s="55" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M38" s="55"/>
       <c r="N38" s="49" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O38" s="49"/>
       <c r="P38" s="50"/>
       <c r="Q38" s="14"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -4898,24 +4995,24 @@
         <v>#REF!</v>
       </c>
       <c r="J39" s="55" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K39" s="55" t="e">
         <f>K38/#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="L39" s="55" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M39" s="55"/>
       <c r="N39" s="49" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O39" s="49"/>
       <c r="P39" s="50"/>
       <c r="Q39" s="14"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -4925,16 +5022,16 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="59" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J40" s="55"/>
       <c r="K40" s="58" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L40" s="55"/>
       <c r="M40" s="55"/>
       <c r="N40" s="55" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O40" s="55"/>
       <c r="P40" s="57">
@@ -4943,7 +5040,7 @@
       </c>
       <c r="Q40" s="14"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -4962,7 +5059,7 @@
       <c r="P41" s="57"/>
       <c r="Q41" s="14"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -4981,7 +5078,7 @@
       <c r="P42" s="57"/>
       <c r="Q42" s="14"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -5000,7 +5097,7 @@
       <c r="P43" s="57"/>
       <c r="Q43" s="14"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -5019,7 +5116,7 @@
       <c r="P44" s="57"/>
       <c r="Q44" s="14"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -5032,7 +5129,7 @@
         <v>1</v>
       </c>
       <c r="J45" s="49" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K45" s="49"/>
       <c r="L45" s="49"/>
@@ -5042,7 +5139,7 @@
       <c r="P45" s="50"/>
       <c r="Q45" s="14"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -5056,7 +5153,7 @@
         <v>3.5999999999999998E-6</v>
       </c>
       <c r="J46" s="49" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K46" s="49"/>
       <c r="L46" s="49"/>
@@ -5066,7 +5163,7 @@
       <c r="P46" s="50"/>
       <c r="Q46" s="14"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -5080,7 +5177,7 @@
         <v>277777.777777777</v>
       </c>
       <c r="J47" s="49" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K47" s="49"/>
       <c r="L47" s="49"/>
@@ -5090,7 +5187,7 @@
       <c r="P47" s="50"/>
       <c r="Q47" s="14"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -5104,10 +5201,10 @@
         <v>1.1944444444444411</v>
       </c>
       <c r="J48" s="49" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K48" s="49" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L48" s="49"/>
       <c r="M48" s="49"/>
@@ -5116,7 +5213,7 @@
       <c r="P48" s="50"/>
       <c r="Q48" s="14"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -5126,11 +5223,11 @@
       <c r="G49" s="14"/>
       <c r="H49" s="14"/>
       <c r="I49" s="59" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J49" s="55"/>
       <c r="K49" s="55" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L49" s="55"/>
       <c r="M49" s="55"/>
@@ -5139,7 +5236,7 @@
       <c r="P49" s="57"/>
       <c r="Q49" s="14"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -5152,10 +5249,10 @@
         <v>0.21</v>
       </c>
       <c r="J50" s="49" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K50" s="49" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L50" s="49"/>
       <c r="M50" s="49"/>
@@ -5164,7 +5261,7 @@
       <c r="P50" s="50"/>
       <c r="Q50" s="14"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -5178,10 +5275,10 @@
         <v>210</v>
       </c>
       <c r="J51" s="49" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K51" s="60" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L51" s="49"/>
       <c r="M51" s="49"/>
@@ -5190,7 +5287,7 @@
       <c r="P51" s="50"/>
       <c r="Q51" s="14"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -5204,24 +5301,24 @@
         <v>210000</v>
       </c>
       <c r="J52" s="49" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K52" s="49">
         <f>0.45</f>
         <v>0.45</v>
       </c>
       <c r="L52" s="49" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M52" s="49"/>
       <c r="N52" s="49" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O52" s="49"/>
       <c r="P52" s="50"/>
       <c r="Q52" s="14"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -5235,14 +5332,14 @@
         <v>210000000</v>
       </c>
       <c r="J53" s="49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K53" s="49">
         <f>K52*1000</f>
         <v>450</v>
       </c>
       <c r="L53" s="49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M53" s="49"/>
       <c r="N53" s="49"/>
@@ -5250,7 +5347,7 @@
       <c r="P53" s="50"/>
       <c r="Q53" s="14"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -5264,7 +5361,7 @@
         <v>210</v>
       </c>
       <c r="J54" s="49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K54" s="49"/>
       <c r="L54" s="49"/>
@@ -5274,7 +5371,7 @@
       <c r="P54" s="50"/>
       <c r="Q54" s="14"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -5284,7 +5381,7 @@
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
       <c r="I55" s="64" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J55" s="49"/>
       <c r="K55" s="49"/>
@@ -5295,9 +5392,9 @@
       <c r="P55" s="50"/>
       <c r="Q55" s="14"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I56" s="56" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J56" s="55"/>
       <c r="K56" s="55"/>
@@ -5307,7 +5404,7 @@
       <c r="O56" s="55"/>
       <c r="P56" s="57"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I57" s="61"/>
       <c r="J57" s="62"/>
       <c r="K57" s="62"/>
@@ -5328,17 +5425,17 @@
   <dimension ref="B3:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="66" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="66"/>
@@ -5349,7 +5446,7 @@
       <c r="I3" s="66"/>
       <c r="J3" s="66"/>
     </row>
-    <row r="4" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
       <c r="D4" s="67"/>
@@ -5357,18 +5454,18 @@
       <c r="F4" s="67"/>
       <c r="G4" s="67"/>
     </row>
-    <row r="5" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="68" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C5" s="69"/>
     </row>
-    <row r="6" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="70" t="str">
-        <f>Sector_Fuels_ELC!J8</f>
+        <f>Sector_Fuels_ELC!M8</f>
         <v>ELCGAS</v>
       </c>
       <c r="E6" s="71"/>
@@ -5376,19 +5473,19 @@
       <c r="G6" s="71"/>
       <c r="H6" s="44"/>
     </row>
-    <row r="7" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E7" s="72"/>
       <c r="F7" s="72"/>
       <c r="G7" s="72"/>
       <c r="H7" s="44"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="str">
         <f>[1]Con_ELC!$V$6</f>
         <v>ELCCO2</v>
@@ -5401,16 +5498,16 @@
       <c r="G8" s="74"/>
       <c r="H8" s="44"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="75"/>
       <c r="C23" s="44" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="76"/>
       <c r="C24" s="77" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D24" s="78"/>
       <c r="E24" s="78"/>
